--- a/data/5.CHAMPION, NO45NO52 OFF.xlsx
+++ b/data/5.CHAMPION, NO45NO52 OFF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NDSU\PhD Work\Research\IME Research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D486DF95-17FC-4EE8-A7B1-2972F2F153C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A219A0A-8485-4A84-AD00-DA9D3759EBCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EDF77CAA-285E-48B6-B8F8-8B82F4ACCE83}"/>
   </bookViews>
@@ -435,8 +435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5568CAD9-5350-4858-9AA2-B70DB34FBFBF}">
   <dimension ref="A1:E244"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -466,1736 +466,1736 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>118</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1">
-        <v>47</v>
+        <v>110</v>
       </c>
       <c r="D2" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" s="8">
-        <v>205.65200568481001</v>
+        <v>227.87912332277901</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>110</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>45</v>
+        <v>119</v>
       </c>
       <c r="D3" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" s="8">
-        <v>46.253734173537097</v>
+        <v>227.87912332277901</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>137</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="1">
-        <v>46</v>
+        <v>125</v>
       </c>
       <c r="D4" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4" s="8">
-        <v>46.944394938181503</v>
+        <v>227.87912332277901</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>2</v>
+        <v>119</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" s="1">
-        <v>12</v>
+        <v>128</v>
       </c>
       <c r="D5" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5" s="8">
-        <v>145.79936463258699</v>
+        <v>227.87912332277901</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>2</v>
+        <v>140</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" s="1">
-        <v>41</v>
+        <v>137</v>
       </c>
       <c r="D6" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6" s="8">
-        <v>196.029831793331</v>
+        <v>227.87912332277901</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>2</v>
+        <v>128</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" s="1">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="D7" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7" s="8">
-        <v>206.647225665474</v>
+        <v>227.87912332277901</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>3</v>
+        <v>161</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" s="1">
-        <v>51</v>
+        <v>190</v>
       </c>
       <c r="D8" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8" s="8">
-        <v>54.309355386169301</v>
+        <v>169.97153512316601</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>3</v>
+        <v>190</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" s="1">
-        <v>52</v>
+        <v>204</v>
       </c>
       <c r="D9" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9" s="8">
-        <v>204.346830686418</v>
+        <v>128.3048684565</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>3</v>
+        <v>123</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10" s="1">
-        <v>34</v>
+        <v>115</v>
       </c>
       <c r="D10" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10" s="8">
-        <v>372.229247754124</v>
+        <v>114.011982778584</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>3</v>
+        <v>123</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11" s="1">
-        <v>34</v>
+        <v>114</v>
       </c>
       <c r="D11" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11" s="8">
-        <v>372.74035916916603</v>
+        <v>113.867140544195</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>4</v>
+        <v>204</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12" s="1">
-        <v>42</v>
+        <v>200</v>
       </c>
       <c r="D12" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12" s="8">
-        <v>324.63889838999899</v>
+        <v>94.971535123166305</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>4</v>
+        <v>183</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13" s="1">
-        <v>22</v>
+        <v>181</v>
       </c>
       <c r="D13" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13" s="8">
-        <v>940.54810056213</v>
+        <v>90.460901494527604</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>5</v>
+        <v>125</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14" s="1">
-        <v>33</v>
+        <v>124</v>
       </c>
       <c r="D14" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14" s="8">
-        <v>1049.5416671881701</v>
+        <v>85.932262766545605</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>5</v>
+        <v>125</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15" s="1">
-        <v>35</v>
+        <v>124</v>
       </c>
       <c r="D15" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15" s="8">
-        <v>1115.72335226072</v>
+        <v>85.316597841887301</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>5</v>
+        <v>208</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16" s="1">
-        <v>32</v>
+        <v>195</v>
       </c>
       <c r="D16" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16" s="8">
-        <v>2359.0853199015601</v>
+        <v>64.141722650720197</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>6</v>
+        <v>206</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C17" s="1">
-        <v>2</v>
+        <v>208</v>
       </c>
       <c r="D17" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E17" s="8">
-        <v>162.51666559309999</v>
+        <v>64.141722650720197</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>6</v>
+        <v>200</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18" s="1">
-        <v>13</v>
+        <v>187</v>
       </c>
       <c r="D18" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18" s="8">
-        <v>300.57432566722099</v>
+        <v>63.764351870663802</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>6</v>
+        <v>168</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C19" s="1">
-        <v>11</v>
+        <v>183</v>
       </c>
       <c r="D19" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E19" s="8">
-        <v>462.43362483413898</v>
+        <v>59.6525121771407</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>6</v>
+        <v>195</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C20" s="1">
-        <v>11</v>
+        <v>183</v>
       </c>
       <c r="D20" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E20" s="8">
-        <v>462.43362483413898</v>
+        <v>57.197278206275797</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>8</v>
+        <v>187</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C21" s="1">
-        <v>35</v>
+        <v>173</v>
       </c>
       <c r="D21" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E21" s="8">
-        <v>715.69655142543104</v>
+        <v>53.304868456499698</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>9</v>
+        <v>173</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C22" s="1">
-        <v>57</v>
+        <v>188</v>
       </c>
       <c r="D22" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E22" s="8">
-        <v>1255.5225437017</v>
+        <v>53.304868456499698</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C23" s="1">
-        <v>34</v>
+        <v>82</v>
       </c>
       <c r="D23" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E23" s="8">
-        <v>1339.69675421224</v>
+        <v>49.943767332648797</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C24" s="1">
-        <v>56</v>
+        <v>149</v>
       </c>
       <c r="D24" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E24" s="8">
-        <v>6.7820218049330796</v>
+        <v>48.727869691771303</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C25" s="1">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="D25" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E25" s="8">
-        <v>744.29709657615501</v>
+        <v>27.721545110426501</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C26" s="1">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="D26" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E26" s="8">
-        <v>1253.7467698688899</v>
+        <v>27.370189578165</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="5">
-        <v>11</v>
+      <c r="A27" s="1">
+        <v>97</v>
       </c>
       <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27" s="5">
-        <v>98</v>
+        <v>2</v>
+      </c>
+      <c r="C27" s="1">
+        <v>103</v>
       </c>
       <c r="D27" s="4">
         <v>2</v>
       </c>
-      <c r="E27" s="9">
-        <v>1.9</v>
+      <c r="E27" s="8">
+        <v>27.370189578165</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C28" s="1">
-        <v>1</v>
+        <v>108</v>
       </c>
       <c r="D28" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E28" s="8">
-        <v>723.19888214244895</v>
+        <v>27.370189578165</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C29" s="1">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="D29" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E29" s="8">
-        <v>850.28437849684701</v>
+        <v>27.370189578165</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>11</v>
+        <v>116</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C30" s="1">
-        <v>17</v>
+        <v>125</v>
       </c>
       <c r="D30" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E30" s="8">
-        <v>1124.79138569212</v>
+        <v>27.370189578165</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C31" s="1">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="D31" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E31" s="8">
-        <v>1397.5785527141099</v>
+        <v>26.267836290131498</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C32" s="1">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="D32" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E32" s="8">
-        <v>2312.46047101458</v>
+        <v>26.267836290131498</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <v>11</v>
+        <v>83</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C33" s="1">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="D33" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E33" s="8">
-        <v>2808.4151351022801</v>
+        <v>25.9559545876083</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C34" s="1">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="D34" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E34" s="8">
-        <v>180.22253037440501</v>
+        <v>23.8308665157383</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C35" s="1">
-        <v>30</v>
+        <v>106</v>
       </c>
       <c r="D35" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E35" s="8">
-        <v>237.162161140027</v>
+        <v>23.6111111111111</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
-        <v>14</v>
+        <v>106</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C36" s="1">
-        <v>3</v>
+        <v>113</v>
       </c>
       <c r="D36" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E36" s="8">
-        <v>9.61831409262577</v>
+        <v>23.6111111111111</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
-        <v>14</v>
+        <v>105</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C37" s="1">
-        <v>71</v>
+        <v>111</v>
       </c>
       <c r="D37" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E37" s="8">
-        <v>1003.46208756363</v>
+        <v>23.570093160038301</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C38" s="1">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="D38" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E38" s="8">
-        <v>285.75747006937098</v>
+        <v>23.3503377554111</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
-        <v>15</v>
+        <v>175</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C39" s="1">
-        <v>24</v>
+        <v>160</v>
       </c>
       <c r="D39" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E39" s="8">
-        <v>524.30181555830904</v>
+        <v>21.977865508893998</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
-        <v>16</v>
+        <v>192</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C40" s="1">
-        <v>21</v>
+        <v>175</v>
       </c>
       <c r="D40" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E40" s="8">
-        <v>627.06492468728698</v>
+        <v>21.6165843929099</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
-        <v>16</v>
+        <v>175</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C41" s="1">
-        <v>19</v>
+        <v>160</v>
       </c>
       <c r="D41" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E41" s="8">
-        <v>931.42808096336898</v>
+        <v>21.412867180175098</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C42" s="1">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="D42" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E42" s="8">
-        <v>432.55663274941099</v>
+        <v>17.3911566191424</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
-        <v>18</v>
+        <v>202</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C43" s="1">
-        <v>44</v>
+        <v>191</v>
       </c>
       <c r="D43" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E43" s="8">
-        <v>259.09024770961003</v>
+        <v>17.2222222222222</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
-        <v>19</v>
+        <v>148</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C44" s="1">
-        <v>60</v>
+        <v>158</v>
       </c>
       <c r="D44" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E44" s="8">
-        <v>2.2964103015159099</v>
+        <v>16.6666666666667</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
-        <v>19</v>
+        <v>188</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C45" s="1">
-        <v>67</v>
+        <v>197</v>
       </c>
       <c r="D45" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E45" s="8">
-        <v>16.142461926220498</v>
+        <v>12.2984749212045</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
-        <v>19</v>
+        <v>122</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C46" s="1">
-        <v>21</v>
+        <v>112</v>
       </c>
       <c r="D46" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E46" s="8">
-        <v>736.31172234245798</v>
+        <v>11.8002540413937</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
-        <v>19</v>
+        <v>187</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C47" s="1">
-        <v>20</v>
+        <v>199</v>
       </c>
       <c r="D47" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E47" s="8">
-        <v>1720.1087651964101</v>
+        <v>10.4594834141642</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
-        <v>20</v>
+        <v>189</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C48" s="1">
-        <v>28</v>
+        <v>203</v>
       </c>
       <c r="D48" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E48" s="8">
-        <v>1722.7277196508101</v>
+        <v>6.6499626249852</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="5">
-        <v>21</v>
+      <c r="A49" s="1">
+        <v>189</v>
       </c>
       <c r="B49">
-        <v>1</v>
-      </c>
-      <c r="C49" s="5">
-        <v>162</v>
+        <v>2</v>
+      </c>
+      <c r="C49" s="1">
+        <v>203</v>
       </c>
       <c r="D49" s="4">
         <v>2</v>
       </c>
-      <c r="E49" s="9">
-        <v>4.8099999999999996</v>
+      <c r="E49" s="8">
+        <v>6.5928875370491404</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
-        <v>21</v>
+        <v>203</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C50" s="1">
-        <v>63</v>
+        <v>212</v>
       </c>
       <c r="D50" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E50" s="8">
-        <v>624.58215237988099</v>
+        <v>6.2984057175898904</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
-        <v>21</v>
+        <v>185</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C51" s="1">
-        <v>23</v>
+        <v>171</v>
       </c>
       <c r="D51" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E51" s="8">
-        <v>705.70698767025397</v>
+        <v>3.96514158787113</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
-        <v>24</v>
+        <v>197</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C52" s="1">
-        <v>25</v>
+        <v>186</v>
       </c>
       <c r="D52" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E52" s="8">
-        <v>850.24540450842903</v>
+        <v>3.96514158787113</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
-        <v>27</v>
+        <v>139</v>
       </c>
       <c r="B53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C53" s="1">
-        <v>11</v>
+        <v>151</v>
       </c>
       <c r="D53" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E53" s="8">
-        <v>1671.7608056312699</v>
+        <v>0.83333333333333304</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
-        <v>28</v>
+        <v>139</v>
       </c>
       <c r="B54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C54" s="1">
-        <v>48</v>
+        <v>150</v>
       </c>
       <c r="D54" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E54" s="8">
-        <v>559.300852909122</v>
+        <v>1.1111111111111101</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
-        <v>28</v>
+        <v>152</v>
       </c>
       <c r="B55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C55" s="1">
-        <v>62</v>
+        <v>163</v>
       </c>
       <c r="D55" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E55" s="8">
-        <v>1412.3505602008299</v>
+        <v>1.3888888888888899</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="1">
-        <v>31</v>
+      <c r="A56" s="5">
+        <v>11</v>
       </c>
       <c r="B56">
         <v>1</v>
       </c>
-      <c r="C56" s="1">
-        <v>50</v>
+      <c r="C56" s="5">
+        <v>98</v>
       </c>
       <c r="D56" s="4">
-        <v>1</v>
-      </c>
-      <c r="E56" s="8">
-        <v>29.118754569713701</v>
+        <v>2</v>
+      </c>
+      <c r="E56" s="9">
+        <v>1.9</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
-        <v>31</v>
+        <v>164</v>
       </c>
       <c r="B57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C57" s="1">
-        <v>49</v>
+        <v>179</v>
       </c>
       <c r="D57" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E57" s="8">
-        <v>269.04114608855298</v>
+        <v>1.94444444444444</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
-        <v>32</v>
+        <v>211</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C58" s="1">
-        <v>29</v>
+        <v>212</v>
       </c>
       <c r="D58" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E58" s="8">
-        <v>55.197172002675103</v>
+        <v>2.0349276157434399</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B59">
         <v>1</v>
       </c>
       <c r="C59" s="1">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="D59" s="4">
         <v>1</v>
       </c>
       <c r="E59" s="8">
-        <v>1515.11238090399</v>
+        <v>2.2964103015159099</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
-        <v>33</v>
+        <v>164</v>
       </c>
       <c r="B60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C60" s="1">
-        <v>10</v>
+        <v>178</v>
       </c>
       <c r="D60" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E60" s="8">
-        <v>910.55994697596395</v>
+        <v>2.7777777777777799</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B61">
         <v>1</v>
       </c>
       <c r="C61" s="1">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="D61" s="4">
         <v>1</v>
       </c>
       <c r="E61" s="8">
-        <v>1022.58605623841</v>
+        <v>3.68352669423615</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
-        <v>33</v>
+        <v>156</v>
       </c>
       <c r="B62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C62" s="1">
-        <v>37</v>
+        <v>169</v>
       </c>
       <c r="D62" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E62" s="8">
-        <v>2116.95974954557</v>
+        <v>3.96514158787113</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
-        <v>34</v>
+        <v>170</v>
       </c>
       <c r="B63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C63" s="1">
-        <v>23</v>
+        <v>156</v>
       </c>
       <c r="D63" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E63" s="8">
-        <v>355.08145433903798</v>
+        <v>3.96514158787113</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
-        <v>37</v>
+        <v>171</v>
       </c>
       <c r="B64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C64" s="1">
-        <v>26</v>
+        <v>170</v>
       </c>
       <c r="D64" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E64" s="8">
-        <v>458.92301068317403</v>
+        <v>3.96514158787113</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
-        <v>38</v>
+        <v>186</v>
       </c>
       <c r="B65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C65" s="1">
-        <v>66</v>
+        <v>198</v>
       </c>
       <c r="D65" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E65" s="8">
-        <v>3.68352669423615</v>
+        <v>3.96514158787113</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
-        <v>38</v>
+        <v>196</v>
       </c>
       <c r="B66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C66" s="1">
-        <v>31</v>
+        <v>185</v>
       </c>
       <c r="D66" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E66" s="8">
-        <v>188.2059784564</v>
+        <v>3.96514158787113</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
-        <v>38</v>
+        <v>198</v>
       </c>
       <c r="B67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C67" s="1">
-        <v>21</v>
+        <v>196</v>
       </c>
       <c r="D67" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E67" s="8">
-        <v>198.32556693378601</v>
+        <v>3.96514158787113</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
-        <v>39</v>
+        <v>117</v>
       </c>
       <c r="B68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C68" s="1">
-        <v>28</v>
+        <v>126</v>
       </c>
       <c r="D68" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E68" s="8">
-        <v>779.22862726989797</v>
+        <v>4.1666666666666696</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
-        <v>39</v>
+        <v>152</v>
       </c>
       <c r="B69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C69" s="1">
-        <v>17</v>
+        <v>164</v>
       </c>
       <c r="D69" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E69" s="8">
-        <v>1391.72231887065</v>
+        <v>4.7222222222222197</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="1">
-        <v>40</v>
+      <c r="A70" s="5">
+        <v>21</v>
       </c>
       <c r="B70">
         <v>1</v>
       </c>
-      <c r="C70" s="1">
-        <v>41</v>
+      <c r="C70" s="5">
+        <v>162</v>
       </c>
       <c r="D70" s="4">
-        <v>1</v>
-      </c>
-      <c r="E70" s="8">
-        <v>168.50726866013599</v>
+        <v>2</v>
+      </c>
+      <c r="E70" s="9">
+        <v>4.8099999999999996</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="1">
-        <v>42</v>
+      <c r="A71" s="5">
+        <v>70</v>
       </c>
       <c r="B71">
         <v>1</v>
       </c>
-      <c r="C71" s="1">
-        <v>25</v>
+      <c r="C71" s="5">
+        <v>192</v>
       </c>
       <c r="D71" s="4">
-        <v>1</v>
-      </c>
-      <c r="E71" s="8">
-        <v>355.58052944110301</v>
+        <v>2</v>
+      </c>
+      <c r="E71" s="9">
+        <v>5.59</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
-        <v>43</v>
+        <v>139</v>
       </c>
       <c r="B72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C72" s="1">
-        <v>17</v>
+        <v>152</v>
       </c>
       <c r="D72" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E72" s="8">
-        <v>353.37419650606103</v>
+        <v>6.1111111111111098</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B73">
         <v>1</v>
       </c>
       <c r="C73" s="1">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="D73" s="4">
         <v>1</v>
       </c>
       <c r="E73" s="8">
-        <v>725.98726711083805</v>
+        <v>6.7820218049330796</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
-        <v>44</v>
+        <v>127</v>
       </c>
       <c r="B74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C74" s="1">
-        <v>30</v>
+        <v>139</v>
       </c>
       <c r="D74" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E74" s="8">
-        <v>218.47985928639</v>
+        <v>8.0555555555555607</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
-        <v>51</v>
+        <v>197</v>
       </c>
       <c r="B75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C75" s="1">
-        <v>73</v>
+        <v>209</v>
       </c>
       <c r="D75" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E75" s="8">
-        <v>25.5382459096883</v>
+        <v>8.3333333333333304</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
-        <v>52</v>
+        <v>211</v>
       </c>
       <c r="B76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C76" s="1">
-        <v>72</v>
+        <v>215</v>
       </c>
       <c r="D76" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E76" s="8">
-        <v>807.18249645953995</v>
+        <v>8.3333333333333304</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
-        <v>53</v>
+        <v>212</v>
       </c>
       <c r="B77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C77" s="1">
-        <v>11</v>
+        <v>216</v>
       </c>
       <c r="D77" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E77" s="8">
-        <v>1920.84188001653</v>
+        <v>8.3333333333333304</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="B78">
         <v>1</v>
       </c>
       <c r="C78" s="1">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D78" s="4">
         <v>1</v>
       </c>
       <c r="E78" s="8">
-        <v>1795.63406466778</v>
+        <v>9.61831409262577</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
-        <v>57</v>
+        <v>202</v>
       </c>
       <c r="B79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C79" s="1">
-        <v>58</v>
+        <v>211</v>
       </c>
       <c r="D79" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E79" s="8">
-        <v>1141.79935922609</v>
+        <v>10.368260949076801</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
-        <v>58</v>
+        <v>155</v>
       </c>
       <c r="B80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C80" s="1">
-        <v>59</v>
+        <v>167</v>
       </c>
       <c r="D80" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E80" s="8">
-        <v>312.54874169137202</v>
+        <v>11.1111111111111</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
-        <v>58</v>
+        <v>122</v>
       </c>
       <c r="B81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C81" s="1">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="D81" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E81" s="8">
-        <v>324.01213937144598</v>
+        <v>12.030612474344601</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
-        <v>59</v>
+        <v>127</v>
       </c>
       <c r="B82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C82" s="1">
-        <v>70</v>
+        <v>138</v>
       </c>
       <c r="D82" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E82" s="8">
-        <v>65.473726041772096</v>
+        <v>12.2222222222222</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="B83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C83" s="1">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="D83" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E83" s="8">
-        <v>139.48392012769</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="B84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C84" s="1">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="D84" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E84" s="8">
-        <v>631.75854300819299</v>
+        <v>13.8888888888889</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="B85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C85" s="1">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="D85" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E85" s="8">
-        <v>3223.9711390247098</v>
+        <v>13.8888888888889</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86" s="5">
-        <v>70</v>
+      <c r="A86" s="1">
+        <v>85</v>
       </c>
       <c r="B86">
-        <v>1</v>
-      </c>
-      <c r="C86" s="5">
-        <v>192</v>
+        <v>2</v>
+      </c>
+      <c r="C86" s="1">
+        <v>90</v>
       </c>
       <c r="D86" s="4">
         <v>2</v>
       </c>
-      <c r="E86" s="9">
-        <v>5.59</v>
+      <c r="E86" s="8">
+        <v>13.8888888888889</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
-        <v>76</v>
+        <v>166</v>
       </c>
       <c r="B87">
         <v>2</v>
       </c>
       <c r="C87" s="1">
-        <v>78</v>
+        <v>182</v>
       </c>
       <c r="D87" s="4">
         <v>2</v>
       </c>
       <c r="E87" s="8">
-        <v>20.8333333333333</v>
+        <v>15</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="B88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C88" s="1">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="D88" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E88" s="8">
-        <v>-26.267836290131498</v>
+        <v>16.142461926220498</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B89">
         <v>2</v>
       </c>
       <c r="C89" s="1">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D89" s="4">
         <v>2</v>
       </c>
       <c r="E89" s="8">
-        <v>13.8888888888889</v>
+        <v>17.173188141608598</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B90">
         <v>2</v>
       </c>
       <c r="C90" s="1">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D90" s="4">
         <v>2</v>
       </c>
       <c r="E90" s="8">
-        <v>20.8333333333333</v>
+        <v>17.173188141608598</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B91">
         <v>2</v>
       </c>
       <c r="C91" s="1">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D91" s="4">
         <v>2</v>
       </c>
       <c r="E91" s="8">
-        <v>25.546797732478002</v>
+        <v>17.250289261858399</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
-        <v>80</v>
+        <v>121</v>
       </c>
       <c r="B92">
         <v>2</v>
       </c>
       <c r="C92" s="1">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="D92" s="4">
         <v>2</v>
       </c>
       <c r="E92" s="8">
-        <v>-26.267836290131498</v>
+        <v>18.096573506628399</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
-        <v>80</v>
+        <v>129</v>
       </c>
       <c r="B93">
         <v>2</v>
       </c>
       <c r="C93" s="1">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="D93" s="4">
         <v>2</v>
       </c>
       <c r="E93" s="8">
-        <v>17.173188141608598</v>
+        <v>18.096573506628399</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="B94">
         <v>2</v>
       </c>
       <c r="C94" s="1">
-        <v>83</v>
+        <v>129</v>
       </c>
       <c r="D94" s="4">
         <v>2</v>
       </c>
       <c r="E94" s="8">
-        <v>17.250289261858399</v>
+        <v>18.096573506628399</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="B95">
         <v>2</v>
       </c>
       <c r="C95" s="1">
-        <v>85</v>
+        <v>127</v>
       </c>
       <c r="D95" s="4">
         <v>2</v>
       </c>
       <c r="E95" s="8">
-        <v>13.8888888888889</v>
+        <v>20.2777777777778</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B96">
         <v>2</v>
       </c>
       <c r="C96" s="1">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D96" s="4">
         <v>2</v>
       </c>
       <c r="E96" s="8">
-        <v>-49.943767332648797</v>
+        <v>20.8333333333333</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B97">
         <v>2</v>
       </c>
       <c r="C97" s="1">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="D97" s="4">
         <v>2</v>
       </c>
       <c r="E97" s="8">
-        <v>22.2222222222222</v>
+        <v>20.8333333333333</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
-        <v>83</v>
+        <v>205</v>
       </c>
       <c r="B98">
         <v>2</v>
       </c>
       <c r="C98" s="1">
-        <v>80</v>
+        <v>192</v>
       </c>
       <c r="D98" s="4">
         <v>2</v>
       </c>
       <c r="E98" s="8">
-        <v>-17.3911566191424</v>
+        <v>21.572045789566602</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
-        <v>83</v>
+        <v>192</v>
       </c>
       <c r="B99">
         <v>2</v>
       </c>
       <c r="C99" s="1">
-        <v>89</v>
+        <v>175</v>
       </c>
       <c r="D99" s="4">
         <v>2</v>
       </c>
       <c r="E99" s="8">
-        <v>25.8586794350012</v>
+        <v>21.774148296159201</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
-        <v>84</v>
+        <v>205</v>
       </c>
       <c r="B100">
         <v>2</v>
       </c>
       <c r="C100" s="1">
-        <v>83</v>
+        <v>192</v>
       </c>
       <c r="D100" s="4">
         <v>2</v>
       </c>
       <c r="E100" s="8">
-        <v>17.173188141608598</v>
+        <v>21.818686899502602</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B101">
         <v>2</v>
       </c>
       <c r="C101" s="1">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D101" s="4">
         <v>2</v>
       </c>
       <c r="E101" s="8">
-        <v>13.8888888888889</v>
+        <v>22.2222222222222</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
-        <v>87</v>
+        <v>130</v>
       </c>
       <c r="B102">
         <v>2</v>
       </c>
       <c r="C102" s="1">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="D102" s="4">
         <v>2</v>
       </c>
       <c r="E102" s="8">
-        <v>-27.721545110426501</v>
+        <v>22.818795728850599</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
-        <v>87</v>
+        <v>131</v>
       </c>
       <c r="B103">
         <v>2</v>
       </c>
       <c r="C103" s="1">
-        <v>91</v>
+        <v>122</v>
       </c>
       <c r="D103" s="4">
         <v>2</v>
       </c>
       <c r="E103" s="8">
-        <v>27.721545110426501</v>
+        <v>23.8308665157383</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
@@ -2206,24 +2206,24 @@
         <v>2</v>
       </c>
       <c r="C104" s="1">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="D104" s="4">
         <v>2</v>
       </c>
       <c r="E104" s="8">
-        <v>-25.9559545876083</v>
+        <v>24.4444444444444</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B105">
         <v>2</v>
       </c>
       <c r="C105" s="1">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D105" s="4">
         <v>2</v>
@@ -2233,65 +2233,65 @@
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A106" s="1">
-        <v>89</v>
+      <c r="A106" s="6">
+        <v>98</v>
       </c>
       <c r="B106">
         <v>2</v>
       </c>
-      <c r="C106" s="1">
-        <v>94</v>
+      <c r="C106" s="6">
+        <v>104</v>
       </c>
       <c r="D106" s="4">
         <v>2</v>
       </c>
       <c r="E106" s="8">
-        <v>25.8586794350012</v>
+        <v>24.4444444444444</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="B107">
         <v>2</v>
       </c>
       <c r="C107" s="1">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="D107" s="4">
         <v>2</v>
       </c>
       <c r="E107" s="8">
-        <v>51.128115533188897</v>
+        <v>24.4444444444444</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="B108">
         <v>2</v>
       </c>
       <c r="C108" s="1">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="D108" s="4">
         <v>2</v>
       </c>
       <c r="E108" s="8">
-        <v>25.8586794350012</v>
+        <v>24.4444444444444</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
-        <v>93</v>
+        <v>131</v>
       </c>
       <c r="B109">
         <v>2</v>
       </c>
       <c r="C109" s="1">
-        <v>98</v>
+        <v>143</v>
       </c>
       <c r="D109" s="4">
         <v>2</v>
@@ -2302,47 +2302,47 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
-        <v>94</v>
+        <v>51</v>
       </c>
       <c r="B110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C110" s="1">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="D110" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E110" s="8">
-        <v>25.8586794350012</v>
+        <v>25.5382459096883</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="B111">
         <v>2</v>
       </c>
       <c r="C111" s="1">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="D111" s="4">
         <v>2</v>
       </c>
       <c r="E111" s="8">
-        <v>12.5</v>
+        <v>25.546797732478002</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="B112">
         <v>2</v>
       </c>
       <c r="C112" s="1">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D112" s="4">
         <v>2</v>
@@ -2353,47 +2353,47 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B113">
         <v>2</v>
       </c>
       <c r="C113" s="1">
+        <v>94</v>
+      </c>
+      <c r="D113" s="4">
+        <v>2</v>
+      </c>
+      <c r="E113" s="8">
+        <v>25.8586794350012</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114" s="1">
+        <v>92</v>
+      </c>
+      <c r="B114">
+        <v>2</v>
+      </c>
+      <c r="C114" s="1">
         <v>88</v>
       </c>
-      <c r="D113" s="4">
-        <v>2</v>
-      </c>
-      <c r="E113" s="8">
-        <v>-27.370189578165</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A114" s="6">
-        <v>98</v>
-      </c>
-      <c r="B114">
-        <v>2</v>
-      </c>
-      <c r="C114" s="6">
-        <v>104</v>
-      </c>
       <c r="D114" s="4">
         <v>2</v>
       </c>
       <c r="E114" s="8">
-        <v>24.4444444444444</v>
+        <v>25.8586794350012</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
+        <v>94</v>
+      </c>
+      <c r="B115">
+        <v>2</v>
+      </c>
+      <c r="C115" s="1">
         <v>99</v>
-      </c>
-      <c r="B115">
-        <v>2</v>
-      </c>
-      <c r="C115" s="1">
-        <v>102</v>
       </c>
       <c r="D115" s="4">
         <v>2</v>
@@ -2404,30 +2404,30 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B116">
         <v>2</v>
       </c>
       <c r="C116" s="1">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D116" s="4">
         <v>2</v>
       </c>
       <c r="E116" s="8">
-        <v>-23.3503377554111</v>
+        <v>25.8586794350012</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
+        <v>99</v>
+      </c>
+      <c r="B117">
+        <v>2</v>
+      </c>
+      <c r="C117" s="1">
         <v>102</v>
-      </c>
-      <c r="B117">
-        <v>2</v>
-      </c>
-      <c r="C117" s="1">
-        <v>96</v>
       </c>
       <c r="D117" s="4">
         <v>2</v>
@@ -2438,597 +2438,597 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B118">
         <v>2</v>
       </c>
       <c r="C118" s="1">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D118" s="4">
         <v>2</v>
       </c>
       <c r="E118" s="8">
-        <v>-27.370189578165</v>
+        <v>25.8586794350012</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="B119">
         <v>2</v>
       </c>
       <c r="C119" s="1">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="D119" s="4">
         <v>2</v>
       </c>
       <c r="E119" s="8">
-        <v>24.4444444444444</v>
+        <v>26.8779465862366</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
-        <v>105</v>
+        <v>189</v>
       </c>
       <c r="B120">
         <v>2</v>
       </c>
       <c r="C120" s="1">
-        <v>112</v>
+        <v>202</v>
       </c>
       <c r="D120" s="4">
         <v>2</v>
       </c>
       <c r="E120" s="8">
-        <v>-23.8308665157383</v>
+        <v>27.590483171298999</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="B121">
         <v>2</v>
       </c>
       <c r="C121" s="1">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="D121" s="4">
         <v>2</v>
       </c>
       <c r="E121" s="8">
-        <v>-23.6111111111111</v>
+        <v>27.721545110426501</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
-        <v>107</v>
+        <v>31</v>
       </c>
       <c r="B122">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C122" s="1">
-        <v>115</v>
+        <v>50</v>
       </c>
       <c r="D122" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E122" s="8">
-        <v>113.867140544195</v>
+        <v>29.118754569713701</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
-        <v>108</v>
+        <v>200</v>
       </c>
       <c r="B123">
         <v>2</v>
       </c>
       <c r="C123" s="1">
-        <v>103</v>
+        <v>199</v>
       </c>
       <c r="D123" s="4">
         <v>2</v>
       </c>
       <c r="E123" s="8">
-        <v>-27.370189578165</v>
+        <v>31.207183252502499</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
-        <v>109</v>
+        <v>204</v>
       </c>
       <c r="B124">
         <v>2</v>
       </c>
       <c r="C124" s="1">
-        <v>117</v>
+        <v>213</v>
       </c>
       <c r="D124" s="4">
         <v>2</v>
       </c>
       <c r="E124" s="8">
-        <v>24.4444444444444</v>
+        <v>33.3333333333333</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="B125">
         <v>2</v>
       </c>
       <c r="C125" s="1">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="D125" s="4">
         <v>2</v>
       </c>
       <c r="E125" s="8">
-        <v>-227.87912332277901</v>
+        <v>39.0344215417526</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="B126">
         <v>2</v>
       </c>
       <c r="C126" s="1">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="D126" s="4">
         <v>2</v>
       </c>
       <c r="E126" s="8">
-        <v>-23.570093160038301</v>
+        <v>39.339929742653602</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
-        <v>111</v>
+        <v>161</v>
       </c>
       <c r="B127">
         <v>2</v>
       </c>
       <c r="C127" s="1">
-        <v>120</v>
+        <v>189</v>
       </c>
       <c r="D127" s="4">
         <v>2</v>
       </c>
       <c r="E127" s="8">
-        <v>41.6666666666667</v>
+        <v>40.8333333333333</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
-        <v>112</v>
+        <v>188</v>
       </c>
       <c r="B128">
         <v>2</v>
       </c>
       <c r="C128" s="1">
-        <v>122</v>
+        <v>201</v>
       </c>
       <c r="D128" s="4">
         <v>2</v>
       </c>
       <c r="E128" s="8">
-        <v>-11.8002540413937</v>
+        <v>41.006393535295203</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B129">
         <v>2</v>
       </c>
       <c r="C129" s="1">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="D129" s="4">
         <v>2</v>
       </c>
       <c r="E129" s="8">
-        <v>-23.6111111111111</v>
+        <v>41.6666666666667</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
-        <v>114</v>
+        <v>199</v>
       </c>
       <c r="B130">
         <v>2</v>
       </c>
       <c r="C130" s="1">
-        <v>123</v>
+        <v>210</v>
       </c>
       <c r="D130" s="4">
         <v>2</v>
       </c>
       <c r="E130" s="8">
-        <v>-113.867140544195</v>
+        <v>41.6666666666667</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
-        <v>114</v>
+        <v>2</v>
       </c>
       <c r="B131">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C131" s="1">
-        <v>107</v>
+        <v>45</v>
       </c>
       <c r="D131" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E131" s="8">
-        <v>113.867140544195</v>
+        <v>46.253734173537097</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
-        <v>115</v>
+        <v>2</v>
       </c>
       <c r="B132">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C132" s="1">
-        <v>123</v>
+        <v>46</v>
       </c>
       <c r="D132" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E132" s="8">
-        <v>-114.011982778584</v>
+        <v>46.944394938181503</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A133" s="6">
-        <v>115</v>
+      <c r="A133" s="1">
+        <v>142</v>
       </c>
       <c r="B133">
         <v>2</v>
       </c>
-      <c r="C133" s="6">
-        <v>118</v>
+      <c r="C133" s="1">
+        <v>131</v>
       </c>
       <c r="D133" s="4">
         <v>2</v>
       </c>
       <c r="E133" s="8">
-        <v>227.87912332277901</v>
+        <v>48.275310960182701</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
-        <v>116</v>
+        <v>160</v>
       </c>
       <c r="B134">
         <v>2</v>
       </c>
       <c r="C134" s="1">
-        <v>108</v>
+        <v>149</v>
       </c>
       <c r="D134" s="4">
         <v>2</v>
       </c>
       <c r="E134" s="8">
-        <v>-27.370189578165</v>
+        <v>48.711201255950499</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
-        <v>117</v>
+        <v>160</v>
       </c>
       <c r="B135">
         <v>2</v>
       </c>
       <c r="C135" s="1">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="D135" s="4">
         <v>2</v>
       </c>
       <c r="E135" s="8">
-        <v>4.1666666666666696</v>
+        <v>48.809365252876503</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
-        <v>117</v>
+        <v>174</v>
       </c>
       <c r="B136">
         <v>2</v>
       </c>
       <c r="C136" s="1">
-        <v>127</v>
+        <v>160</v>
       </c>
       <c r="D136" s="4">
         <v>2</v>
       </c>
       <c r="E136" s="8">
-        <v>20.2777777777778</v>
+        <v>50.7668702747129</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="B137">
         <v>2</v>
       </c>
       <c r="C137" s="1">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="D137" s="4">
         <v>2</v>
       </c>
       <c r="E137" s="8">
-        <v>-227.87912332277901</v>
+        <v>51.128115533188897</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
-        <v>121</v>
+        <v>176</v>
       </c>
       <c r="B138">
         <v>2</v>
       </c>
       <c r="C138" s="1">
-        <v>111</v>
+        <v>160</v>
       </c>
       <c r="D138" s="4">
         <v>2</v>
       </c>
       <c r="E138" s="8">
-        <v>18.096573506628399</v>
+        <v>52.090833236816401</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
-        <v>122</v>
+        <v>3</v>
       </c>
       <c r="B139">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C139" s="1">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="D139" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E139" s="8">
-        <v>12.030612474344601</v>
+        <v>54.309355386169301</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
-        <v>124</v>
+        <v>32</v>
       </c>
       <c r="B140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C140" s="1">
-        <v>125</v>
+        <v>29</v>
       </c>
       <c r="D140" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E140" s="8">
-        <v>-85.932262766545605</v>
+        <v>55.197172002675103</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
-        <v>124</v>
+        <v>59</v>
       </c>
       <c r="B141">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C141" s="1">
-        <v>125</v>
+        <v>70</v>
       </c>
       <c r="D141" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E141" s="8">
-        <v>-85.316597841887301</v>
+        <v>65.473726041772096</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
-        <v>124</v>
+        <v>166</v>
       </c>
       <c r="B142">
         <v>2</v>
       </c>
       <c r="C142" s="1">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="D142" s="4">
         <v>2</v>
       </c>
       <c r="E142" s="8">
-        <v>255.24931290094401</v>
+        <v>75.460901494527604</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
-        <v>125</v>
+        <v>165</v>
       </c>
       <c r="B143">
         <v>2</v>
       </c>
       <c r="C143" s="1">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="D143" s="4">
         <v>2</v>
       </c>
       <c r="E143" s="8">
-        <v>-227.87912332277901</v>
+        <v>82.106713549878194</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
-        <v>125</v>
+        <v>180</v>
       </c>
       <c r="B144">
         <v>2</v>
       </c>
       <c r="C144" s="1">
-        <v>116</v>
+        <v>165</v>
       </c>
       <c r="D144" s="4">
         <v>2</v>
       </c>
       <c r="E144" s="8">
-        <v>-27.370189578165</v>
+        <v>82.106713549878194</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
-        <v>125</v>
+        <v>194</v>
       </c>
       <c r="B145">
         <v>2</v>
       </c>
       <c r="C145" s="1">
-        <v>124</v>
+        <v>180</v>
       </c>
       <c r="D145" s="4">
         <v>2</v>
       </c>
       <c r="E145" s="8">
-        <v>84.000452292511198</v>
+        <v>82.106713549878194</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
-        <v>127</v>
+        <v>206</v>
       </c>
       <c r="B146">
         <v>2</v>
       </c>
       <c r="C146" s="1">
-        <v>139</v>
+        <v>214</v>
       </c>
       <c r="D146" s="4">
         <v>2</v>
       </c>
       <c r="E146" s="8">
-        <v>8.0555555555555607</v>
+        <v>82.106713549878194</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
-        <v>127</v>
+        <v>207</v>
       </c>
       <c r="B147">
         <v>2</v>
       </c>
       <c r="C147" s="1">
-        <v>138</v>
+        <v>194</v>
       </c>
       <c r="D147" s="4">
         <v>2</v>
       </c>
       <c r="E147" s="8">
-        <v>12.2222222222222</v>
+        <v>82.106713549878194</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
-        <v>128</v>
+        <v>214</v>
       </c>
       <c r="B148">
         <v>2</v>
       </c>
       <c r="C148" s="1">
-        <v>119</v>
+        <v>207</v>
       </c>
       <c r="D148" s="4">
         <v>2</v>
       </c>
       <c r="E148" s="8">
-        <v>-227.87912332277901</v>
+        <v>82.106713549878194</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B149">
         <v>2</v>
       </c>
       <c r="C149" s="1">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D149" s="4">
         <v>2</v>
       </c>
       <c r="E149" s="8">
-        <v>18.096573506628399</v>
+        <v>84.000452292511198</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
-        <v>130</v>
+        <v>181</v>
       </c>
       <c r="B150">
         <v>2</v>
       </c>
       <c r="C150" s="1">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="D150" s="4">
         <v>2</v>
       </c>
       <c r="E150" s="8">
-        <v>22.818795728850599</v>
+        <v>90.460901494527604</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
-        <v>131</v>
+        <v>155</v>
       </c>
       <c r="B151">
         <v>2</v>
       </c>
       <c r="C151" s="1">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="D151" s="4">
         <v>2</v>
       </c>
       <c r="E151" s="8">
-        <v>23.8308665157383</v>
+        <v>92.947419773676998</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
-        <v>131</v>
+        <v>155</v>
       </c>
       <c r="B152">
         <v>2</v>
       </c>
       <c r="C152" s="1">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D152" s="4">
         <v>2</v>
       </c>
       <c r="E152" s="8">
-        <v>24.4444444444444</v>
+        <v>93.106706705212602</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.3">
@@ -3050,223 +3050,223 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B154">
         <v>2</v>
       </c>
       <c r="C154" s="1">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="D154" s="4">
         <v>2</v>
       </c>
       <c r="E154" s="8">
-        <v>26.8779465862366</v>
+        <v>98.989117247692306</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
+        <v>142</v>
+      </c>
+      <c r="B155">
+        <v>2</v>
+      </c>
+      <c r="C155" s="1">
         <v>133</v>
       </c>
-      <c r="B155">
-        <v>2</v>
-      </c>
-      <c r="C155" s="1">
-        <v>130</v>
-      </c>
       <c r="D155" s="4">
         <v>2</v>
       </c>
       <c r="E155" s="8">
-        <v>39.0344215417526</v>
+        <v>105.25229787064301</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="B156">
         <v>2</v>
       </c>
       <c r="C156" s="1">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="D156" s="4">
         <v>2</v>
       </c>
       <c r="E156" s="8">
-        <v>39.339929742653602</v>
+        <v>113.867140544195</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="B157">
         <v>2</v>
       </c>
       <c r="C157" s="1">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="D157" s="4">
         <v>2</v>
       </c>
       <c r="E157" s="8">
-        <v>157.56761504440601</v>
+        <v>113.867140544195</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
-        <v>136</v>
+        <v>184</v>
       </c>
       <c r="B158">
         <v>2</v>
       </c>
       <c r="C158" s="1">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="D158" s="4">
         <v>2</v>
       </c>
       <c r="E158" s="8">
-        <v>255.24931290094401</v>
+        <v>117.928860878253</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
-        <v>137</v>
+        <v>59</v>
       </c>
       <c r="B159">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C159" s="1">
-        <v>140</v>
+        <v>55</v>
       </c>
       <c r="D159" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E159" s="8">
-        <v>-227.87912332277901</v>
+        <v>139.48392012769</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
-        <v>139</v>
+        <v>2</v>
       </c>
       <c r="B160">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C160" s="1">
-        <v>151</v>
+        <v>12</v>
       </c>
       <c r="D160" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E160" s="8">
-        <v>0.83333333333333304</v>
+        <v>145.79936463258699</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="B161">
         <v>2</v>
       </c>
       <c r="C161" s="1">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="D161" s="4">
         <v>2</v>
       </c>
       <c r="E161" s="8">
-        <v>1.1111111111111101</v>
+        <v>146.24843620059801</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A162" s="1">
-        <v>139</v>
+      <c r="A162" s="6">
+        <v>162</v>
       </c>
       <c r="B162">
         <v>2</v>
       </c>
-      <c r="C162" s="1">
-        <v>152</v>
+      <c r="C162" s="6">
+        <v>177</v>
       </c>
       <c r="D162" s="4">
         <v>2</v>
       </c>
       <c r="E162" s="8">
-        <v>6.1111111111111098</v>
+        <v>146.24843620059801</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
-        <v>140</v>
+        <v>177</v>
       </c>
       <c r="B163">
         <v>2</v>
       </c>
       <c r="C163" s="1">
-        <v>128</v>
+        <v>193</v>
       </c>
       <c r="D163" s="4">
         <v>2</v>
       </c>
       <c r="E163" s="8">
-        <v>-227.87912332277901</v>
+        <v>146.24843620059801</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
-        <v>141</v>
+        <v>193</v>
       </c>
       <c r="B164">
         <v>2</v>
       </c>
       <c r="C164" s="1">
-        <v>129</v>
+        <v>206</v>
       </c>
       <c r="D164" s="4">
         <v>2</v>
       </c>
       <c r="E164" s="8">
-        <v>18.096573506628399</v>
+        <v>146.24843620059801</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B165">
         <v>2</v>
       </c>
       <c r="C165" s="1">
-        <v>131</v>
+        <v>153</v>
       </c>
       <c r="D165" s="4">
         <v>2</v>
       </c>
       <c r="E165" s="8">
-        <v>48.275310960182701</v>
+        <v>151.331904256667</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="B166">
         <v>2</v>
       </c>
       <c r="C166" s="1">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="D166" s="4">
         <v>2</v>
       </c>
       <c r="E166" s="8">
-        <v>105.25229787064301</v>
+        <v>151.331904256667</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.3">
@@ -3277,30 +3277,30 @@
         <v>2</v>
       </c>
       <c r="C167" s="1">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="D167" s="4">
         <v>2</v>
       </c>
       <c r="E167" s="8">
-        <v>98.989117247692306</v>
+        <v>153.52760883082499</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="B168">
         <v>2</v>
       </c>
       <c r="C168" s="1">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="D168" s="4">
         <v>2</v>
       </c>
       <c r="E168" s="8">
-        <v>153.52760883082499</v>
+        <v>157.56761504440601</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.3">
@@ -3322,1282 +3322,1282 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="B170">
         <v>2</v>
       </c>
       <c r="C170" s="1">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D170" s="4">
         <v>2</v>
       </c>
       <c r="E170" s="8">
-        <v>151.331904256667</v>
+        <v>157.56761504440601</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
-        <v>148</v>
+        <v>6</v>
       </c>
       <c r="B171">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C171" s="1">
-        <v>159</v>
+        <v>2</v>
       </c>
       <c r="D171" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E171" s="8">
-        <v>238.58264623427701</v>
+        <v>162.51666559309999</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
-        <v>149</v>
+        <v>40</v>
       </c>
       <c r="B172">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C172" s="1">
-        <v>160</v>
+        <v>41</v>
       </c>
       <c r="D172" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E172" s="8">
-        <v>-48.727869691771303</v>
+        <v>168.50726866013599</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
-        <v>149</v>
+        <v>12</v>
       </c>
       <c r="B173">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C173" s="1">
-        <v>162</v>
+        <v>30</v>
       </c>
       <c r="D173" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E173" s="8">
-        <v>146.24843620059801</v>
+        <v>180.22253037440501</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
-        <v>152</v>
+        <v>38</v>
       </c>
       <c r="B174">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C174" s="1">
-        <v>163</v>
+        <v>31</v>
       </c>
       <c r="D174" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E174" s="8">
-        <v>1.3888888888888899</v>
+        <v>188.2059784564</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
-        <v>152</v>
+        <v>2</v>
       </c>
       <c r="B175">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C175" s="1">
-        <v>164</v>
+        <v>41</v>
       </c>
       <c r="D175" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E175" s="8">
-        <v>4.7222222222222197</v>
+        <v>196.029831793331</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="B176">
         <v>2</v>
       </c>
       <c r="C176" s="1">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="D176" s="4">
         <v>2</v>
       </c>
       <c r="E176" s="8">
-        <v>151.331904256667</v>
+        <v>197.165237590001</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
-        <v>154</v>
+        <v>38</v>
       </c>
       <c r="B177">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C177" s="1">
-        <v>145</v>
+        <v>21</v>
       </c>
       <c r="D177" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E177" s="8">
-        <v>157.56761504440601</v>
+        <v>198.32556693378601</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
-        <v>155</v>
+        <v>3</v>
       </c>
       <c r="B178">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C178" s="1">
-        <v>167</v>
+        <v>52</v>
       </c>
       <c r="D178" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E178" s="8">
-        <v>11.1111111111111</v>
+        <v>204.346830686418</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
-        <v>155</v>
+        <v>1</v>
       </c>
       <c r="B179">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C179" s="1">
-        <v>146</v>
+        <v>47</v>
       </c>
       <c r="D179" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E179" s="8">
-        <v>92.947419773676998</v>
+        <v>205.65200568481001</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
-        <v>155</v>
+        <v>2</v>
       </c>
       <c r="B180">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C180" s="1">
-        <v>146</v>
+        <v>40</v>
       </c>
       <c r="D180" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E180" s="8">
-        <v>93.106706705212602</v>
+        <v>206.647225665474</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
-        <v>156</v>
+        <v>44</v>
       </c>
       <c r="B181">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C181" s="1">
-        <v>169</v>
+        <v>30</v>
       </c>
       <c r="D181" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E181" s="8">
-        <v>3.96514158787113</v>
+        <v>218.47985928639</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A182" s="1">
-        <v>158</v>
+      <c r="A182" s="6">
+        <v>115</v>
       </c>
       <c r="B182">
         <v>2</v>
       </c>
-      <c r="C182" s="1">
-        <v>148</v>
+      <c r="C182" s="6">
+        <v>118</v>
       </c>
       <c r="D182" s="4">
         <v>2</v>
       </c>
       <c r="E182" s="8">
-        <v>-16.6666666666667</v>
+        <v>227.87912332277901</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
-        <v>159</v>
+        <v>13</v>
       </c>
       <c r="B183">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C183" s="1">
-        <v>161</v>
+        <v>30</v>
       </c>
       <c r="D183" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E183" s="8">
-        <v>238.58264623427701</v>
+        <v>237.162161140027</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="B184">
         <v>2</v>
       </c>
       <c r="C184" s="1">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="D184" s="4">
         <v>2</v>
       </c>
       <c r="E184" s="8">
-        <v>-21.977865508893998</v>
+        <v>238.58264623427701</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B185">
         <v>2</v>
       </c>
       <c r="C185" s="1">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="D185" s="4">
         <v>2</v>
       </c>
       <c r="E185" s="8">
-        <v>-21.412867180175098</v>
+        <v>238.58264623427701</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
-        <v>160</v>
+        <v>124</v>
       </c>
       <c r="B186">
         <v>2</v>
       </c>
       <c r="C186" s="1">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="D186" s="4">
         <v>2</v>
       </c>
       <c r="E186" s="8">
-        <v>48.711201255950499</v>
+        <v>255.24931290094401</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="B187">
         <v>2</v>
       </c>
       <c r="C187" s="1">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D187" s="4">
         <v>2</v>
       </c>
       <c r="E187" s="8">
-        <v>48.809365252876503</v>
+        <v>255.24931290094401</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
-        <v>161</v>
+        <v>18</v>
       </c>
       <c r="B188">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C188" s="1">
-        <v>189</v>
+        <v>44</v>
       </c>
       <c r="D188" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E188" s="8">
-        <v>40.8333333333333</v>
+        <v>259.09024770961003</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A189" s="6">
-        <v>162</v>
+      <c r="A189" s="1">
+        <v>31</v>
       </c>
       <c r="B189">
-        <v>2</v>
-      </c>
-      <c r="C189" s="6">
-        <v>177</v>
+        <v>1</v>
+      </c>
+      <c r="C189" s="1">
+        <v>49</v>
       </c>
       <c r="D189" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E189" s="8">
-        <v>146.24843620059801</v>
+        <v>269.04114608855298</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
-        <v>164</v>
+        <v>15</v>
       </c>
       <c r="B190">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C190" s="1">
-        <v>179</v>
+        <v>22</v>
       </c>
       <c r="D190" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E190" s="8">
-        <v>1.94444444444444</v>
+        <v>285.75747006937098</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
-        <v>164</v>
+        <v>6</v>
       </c>
       <c r="B191">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C191" s="1">
-        <v>178</v>
+        <v>13</v>
       </c>
       <c r="D191" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E191" s="8">
-        <v>2.7777777777777799</v>
+        <v>300.57432566722099</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
-        <v>165</v>
+        <v>58</v>
       </c>
       <c r="B192">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C192" s="1">
-        <v>154</v>
+        <v>59</v>
       </c>
       <c r="D192" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E192" s="8">
-        <v>82.106713549878194</v>
+        <v>312.54874169137202</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
-        <v>166</v>
+        <v>58</v>
       </c>
       <c r="B193">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C193" s="1">
-        <v>182</v>
+        <v>74</v>
       </c>
       <c r="D193" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E193" s="8">
-        <v>15</v>
+        <v>324.01213937144598</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
-        <v>166</v>
+        <v>4</v>
       </c>
       <c r="B194">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C194" s="1">
-        <v>154</v>
+        <v>42</v>
       </c>
       <c r="D194" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E194" s="8">
-        <v>75.460901494527604</v>
+        <v>324.63889838999899</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
-        <v>168</v>
+        <v>43</v>
       </c>
       <c r="B195">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C195" s="1">
-        <v>155</v>
+        <v>17</v>
       </c>
       <c r="D195" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E195" s="8">
-        <v>197.165237590001</v>
+        <v>353.37419650606103</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
-        <v>170</v>
+        <v>34</v>
       </c>
       <c r="B196">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C196" s="1">
-        <v>156</v>
+        <v>23</v>
       </c>
       <c r="D196" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E196" s="8">
-        <v>3.96514158787113</v>
+        <v>355.08145433903798</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
-        <v>171</v>
+        <v>42</v>
       </c>
       <c r="B197">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C197" s="1">
-        <v>185</v>
+        <v>25</v>
       </c>
       <c r="D197" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E197" s="8">
-        <v>-3.96514158787113</v>
+        <v>355.58052944110301</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
-        <v>171</v>
+        <v>3</v>
       </c>
       <c r="B198">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C198" s="1">
-        <v>170</v>
+        <v>34</v>
       </c>
       <c r="D198" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E198" s="8">
-        <v>3.96514158787113</v>
+        <v>372.229247754124</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
-        <v>173</v>
+        <v>3</v>
       </c>
       <c r="B199">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C199" s="1">
-        <v>187</v>
+        <v>34</v>
       </c>
       <c r="D199" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E199" s="8">
-        <v>-53.304868456499698</v>
+        <v>372.74035916916603</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
-        <v>174</v>
+        <v>17</v>
       </c>
       <c r="B200">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C200" s="1">
-        <v>160</v>
+        <v>75</v>
       </c>
       <c r="D200" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E200" s="8">
-        <v>50.7668702747129</v>
+        <v>432.55663274941099</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
-        <v>175</v>
+        <v>37</v>
       </c>
       <c r="B201">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C201" s="1">
-        <v>192</v>
+        <v>26</v>
       </c>
       <c r="D201" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E201" s="8">
-        <v>-21.6165843929099</v>
+        <v>458.92301068317403</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
-        <v>176</v>
+        <v>6</v>
       </c>
       <c r="B202">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C202" s="1">
-        <v>160</v>
+        <v>11</v>
       </c>
       <c r="D202" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E202" s="8">
-        <v>52.090833236816401</v>
+        <v>462.43362483413898</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
-        <v>177</v>
+        <v>6</v>
       </c>
       <c r="B203">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C203" s="1">
-        <v>193</v>
+        <v>11</v>
       </c>
       <c r="D203" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E203" s="8">
-        <v>146.24843620059801</v>
+        <v>462.43362483413898</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
-        <v>180</v>
+        <v>15</v>
       </c>
       <c r="B204">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C204" s="1">
-        <v>165</v>
+        <v>24</v>
       </c>
       <c r="D204" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E204" s="8">
-        <v>82.106713549878194</v>
+        <v>524.30181555830904</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
-        <v>181</v>
+        <v>28</v>
       </c>
       <c r="B205">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C205" s="1">
-        <v>183</v>
+        <v>48</v>
       </c>
       <c r="D205" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E205" s="8">
-        <v>-90.460901494527604</v>
+        <v>559.300852909122</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
-        <v>181</v>
+        <v>21</v>
       </c>
       <c r="B206">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C206" s="1">
-        <v>166</v>
+        <v>63</v>
       </c>
       <c r="D206" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E206" s="8">
-        <v>90.460901494527604</v>
+        <v>624.58215237988099</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
-        <v>183</v>
+        <v>16</v>
       </c>
       <c r="B207">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C207" s="1">
-        <v>168</v>
+        <v>21</v>
       </c>
       <c r="D207" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E207" s="8">
-        <v>-59.6525121771407</v>
+        <v>627.06492468728698</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
-        <v>183</v>
+        <v>63</v>
       </c>
       <c r="B208">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C208" s="1">
-        <v>195</v>
+        <v>16</v>
       </c>
       <c r="D208" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E208" s="8">
-        <v>-57.197278206275797</v>
+        <v>631.75854300819299</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
-        <v>184</v>
+        <v>21</v>
       </c>
       <c r="B209">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C209" s="1">
-        <v>168</v>
+        <v>23</v>
       </c>
       <c r="D209" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E209" s="8">
-        <v>117.928860878253</v>
+        <v>705.70698767025397</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
-        <v>186</v>
+        <v>8</v>
       </c>
       <c r="B210">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C210" s="1">
-        <v>197</v>
+        <v>35</v>
       </c>
       <c r="D210" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E210" s="8">
-        <v>-3.96514158787113</v>
+        <v>715.69655142543104</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
-        <v>186</v>
+        <v>11</v>
       </c>
       <c r="B211">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C211" s="1">
-        <v>198</v>
+        <v>1</v>
       </c>
       <c r="D211" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E211" s="8">
-        <v>3.96514158787113</v>
+        <v>723.19888214244895</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
-        <v>187</v>
+        <v>43</v>
       </c>
       <c r="B212">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C212" s="1">
-        <v>200</v>
+        <v>15</v>
       </c>
       <c r="D212" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E212" s="8">
-        <v>-63.764351870663802</v>
+        <v>725.98726711083805</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
-        <v>188</v>
+        <v>19</v>
       </c>
       <c r="B213">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C213" s="1">
-        <v>173</v>
+        <v>21</v>
       </c>
       <c r="D213" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E213" s="8">
-        <v>-53.304868456499698</v>
+        <v>736.31172234245798</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
-        <v>188</v>
+        <v>10</v>
       </c>
       <c r="B214">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C214" s="1">
-        <v>201</v>
+        <v>65</v>
       </c>
       <c r="D214" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E214" s="8">
-        <v>41.006393535295203</v>
+        <v>744.29709657615501</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
-        <v>189</v>
+        <v>39</v>
       </c>
       <c r="B215">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C215" s="1">
-        <v>202</v>
+        <v>28</v>
       </c>
       <c r="D215" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E215" s="8">
-        <v>27.590483171298999</v>
+        <v>779.22862726989797</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
-        <v>190</v>
+        <v>52</v>
       </c>
       <c r="B216">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C216" s="1">
-        <v>161</v>
+        <v>72</v>
       </c>
       <c r="D216" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E216" s="8">
-        <v>-169.97153512316601</v>
+        <v>807.18249645953995</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
-        <v>191</v>
+        <v>24</v>
       </c>
       <c r="B217">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C217" s="1">
-        <v>202</v>
+        <v>25</v>
       </c>
       <c r="D217" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E217" s="8">
-        <v>-17.2222222222222</v>
+        <v>850.24540450842903</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
-        <v>192</v>
+        <v>11</v>
       </c>
       <c r="B218">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C218" s="1">
-        <v>175</v>
+        <v>22</v>
       </c>
       <c r="D218" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E218" s="8">
-        <v>21.774148296159201</v>
+        <v>850.28437849684701</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
-        <v>193</v>
+        <v>33</v>
       </c>
       <c r="B219">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C219" s="1">
-        <v>206</v>
+        <v>10</v>
       </c>
       <c r="D219" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E219" s="8">
-        <v>146.24843620059801</v>
+        <v>910.55994697596395</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
-        <v>194</v>
+        <v>16</v>
       </c>
       <c r="B220">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C220" s="1">
-        <v>180</v>
+        <v>19</v>
       </c>
       <c r="D220" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E220" s="8">
-        <v>82.106713549878194</v>
+        <v>931.42808096336898</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
-        <v>195</v>
+        <v>4</v>
       </c>
       <c r="B221">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C221" s="1">
-        <v>208</v>
+        <v>22</v>
       </c>
       <c r="D221" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E221" s="8">
-        <v>-64.141722650720197</v>
+        <v>940.54810056213</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
-        <v>196</v>
+        <v>14</v>
       </c>
       <c r="B222">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C222" s="1">
-        <v>185</v>
+        <v>71</v>
       </c>
       <c r="D222" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E222" s="8">
-        <v>3.96514158787113</v>
+        <v>1003.46208756363</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
-        <v>197</v>
+        <v>33</v>
       </c>
       <c r="B223">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C223" s="1">
-        <v>188</v>
+        <v>35</v>
       </c>
       <c r="D223" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E223" s="8">
-        <v>-12.2984749212045</v>
+        <v>1022.58605623841</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
-        <v>197</v>
+        <v>5</v>
       </c>
       <c r="B224">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C224" s="1">
-        <v>209</v>
+        <v>33</v>
       </c>
       <c r="D224" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E224" s="8">
-        <v>8.3333333333333304</v>
+        <v>1049.5416671881701</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
-        <v>198</v>
+        <v>5</v>
       </c>
       <c r="B225">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C225" s="1">
-        <v>196</v>
+        <v>35</v>
       </c>
       <c r="D225" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E225" s="8">
-        <v>3.96514158787113</v>
+        <v>1115.72335226072</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
-        <v>199</v>
+        <v>11</v>
       </c>
       <c r="B226">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C226" s="1">
-        <v>187</v>
+        <v>17</v>
       </c>
       <c r="D226" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E226" s="8">
-        <v>-10.4594834141642</v>
+        <v>1124.79138569212</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
-        <v>199</v>
+        <v>57</v>
       </c>
       <c r="B227">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C227" s="1">
-        <v>210</v>
+        <v>58</v>
       </c>
       <c r="D227" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E227" s="8">
-        <v>41.6666666666667</v>
+        <v>1141.79935922609</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="B228">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C228" s="1">
-        <v>204</v>
+        <v>68</v>
       </c>
       <c r="D228" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E228" s="8">
-        <v>-94.971535123166305</v>
+        <v>1253.7467698688899</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
-        <v>200</v>
+        <v>9</v>
       </c>
       <c r="B229">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C229" s="1">
-        <v>199</v>
+        <v>57</v>
       </c>
       <c r="D229" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E229" s="8">
-        <v>31.207183252502499</v>
+        <v>1255.5225437017</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
-        <v>202</v>
+        <v>9</v>
       </c>
       <c r="B230">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C230" s="1">
-        <v>211</v>
+        <v>34</v>
       </c>
       <c r="D230" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E230" s="8">
-        <v>10.368260949076801</v>
+        <v>1339.69675421224</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
-        <v>203</v>
+        <v>39</v>
       </c>
       <c r="B231">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C231" s="1">
-        <v>189</v>
+        <v>17</v>
       </c>
       <c r="D231" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E231" s="8">
-        <v>-6.6499626249852</v>
+        <v>1391.72231887065</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
-        <v>203</v>
+        <v>11</v>
       </c>
       <c r="B232">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C232" s="1">
-        <v>189</v>
+        <v>62</v>
       </c>
       <c r="D232" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E232" s="8">
-        <v>-6.5928875370491404</v>
+        <v>1397.5785527141099</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
-        <v>204</v>
+        <v>28</v>
       </c>
       <c r="B233">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C233" s="1">
-        <v>190</v>
+        <v>62</v>
       </c>
       <c r="D233" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E233" s="8">
-        <v>-128.3048684565</v>
+        <v>1412.3505602008299</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
-        <v>204</v>
+        <v>32</v>
       </c>
       <c r="B234">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C234" s="1">
-        <v>213</v>
+        <v>21</v>
       </c>
       <c r="D234" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E234" s="8">
-        <v>33.3333333333333</v>
+        <v>1515.11238090399</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
-        <v>205</v>
+        <v>27</v>
       </c>
       <c r="B235">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C235" s="1">
-        <v>192</v>
+        <v>11</v>
       </c>
       <c r="D235" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E235" s="8">
-        <v>21.572045789566602</v>
+        <v>1671.7608056312699</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
-        <v>205</v>
+        <v>19</v>
       </c>
       <c r="B236">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C236" s="1">
-        <v>192</v>
+        <v>20</v>
       </c>
       <c r="D236" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E236" s="8">
-        <v>21.818686899502602</v>
+        <v>1720.1087651964101</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
-        <v>206</v>
+        <v>20</v>
       </c>
       <c r="B237">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C237" s="1">
-        <v>214</v>
+        <v>28</v>
       </c>
       <c r="D237" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E237" s="8">
-        <v>82.106713549878194</v>
+        <v>1722.7277196508101</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
-        <v>207</v>
+        <v>54</v>
       </c>
       <c r="B238">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C238" s="1">
-        <v>194</v>
+        <v>11</v>
       </c>
       <c r="D238" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E238" s="8">
-        <v>82.106713549878194</v>
+        <v>1795.63406466778</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
-        <v>208</v>
+        <v>53</v>
       </c>
       <c r="B239">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C239" s="1">
-        <v>206</v>
+        <v>11</v>
       </c>
       <c r="D239" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E239" s="8">
-        <v>-64.141722650720197</v>
+        <v>1920.84188001653</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
-        <v>211</v>
+        <v>33</v>
       </c>
       <c r="B240">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C240" s="1">
-        <v>212</v>
+        <v>37</v>
       </c>
       <c r="D240" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E240" s="8">
-        <v>2.0349276157434399</v>
+        <v>2116.95974954557</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
-        <v>211</v>
+        <v>11</v>
       </c>
       <c r="B241">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C241" s="1">
-        <v>215</v>
+        <v>61</v>
       </c>
       <c r="D241" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E241" s="8">
-        <v>8.3333333333333304</v>
+        <v>2312.46047101458</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
-        <v>212</v>
+        <v>5</v>
       </c>
       <c r="B242">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C242" s="1">
-        <v>203</v>
+        <v>32</v>
       </c>
       <c r="D242" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E242" s="8">
-        <v>-6.2984057175898904</v>
+        <v>2359.0853199015601</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
-        <v>212</v>
+        <v>11</v>
       </c>
       <c r="B243">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C243" s="1">
-        <v>216</v>
+        <v>37</v>
       </c>
       <c r="D243" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E243" s="8">
-        <v>8.3333333333333304</v>
+        <v>2808.4151351022801</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
-        <v>214</v>
+        <v>68</v>
       </c>
       <c r="B244">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C244" s="1">
-        <v>207</v>
+        <v>69</v>
       </c>
       <c r="D244" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E244" s="8">
-        <v>82.106713549878194</v>
+        <v>3223.9711390247098</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E244">
-    <sortCondition ref="A1:A244"/>
+    <sortCondition ref="E1:E244"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
